--- a/db_files/entries_2018.xlsx
+++ b/db_files/entries_2018.xlsx
@@ -1222,15 +1222,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1249,11 @@
       <c r="F1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1269,8 +1272,11 @@
       <c r="F2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1295,11 @@
       <c r="F3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1309,8 +1318,11 @@
       <c r="F4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1329,8 +1341,11 @@
       <c r="F5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1364,11 @@
       <c r="F6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1369,8 +1387,11 @@
       <c r="F7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1389,8 +1410,11 @@
       <c r="F8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1409,8 +1433,11 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1429,8 +1456,11 @@
       <c r="F10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1449,8 +1479,11 @@
       <c r="F11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1469,8 +1502,11 @@
       <c r="F12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1489,8 +1525,11 @@
       <c r="F13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1509,8 +1548,11 @@
       <c r="F14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1529,8 +1571,11 @@
       <c r="F15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1549,8 +1594,11 @@
       <c r="F16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1569,8 +1617,11 @@
       <c r="F17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1589,8 +1640,11 @@
       <c r="F18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1609,8 +1663,11 @@
       <c r="F19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1629,8 +1686,11 @@
       <c r="F20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1649,8 +1709,11 @@
       <c r="F21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1669,8 +1732,11 @@
       <c r="F22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1689,8 +1755,11 @@
       <c r="F23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1709,8 +1778,11 @@
       <c r="F24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1729,8 +1801,11 @@
       <c r="F25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1749,8 +1824,11 @@
       <c r="F26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1769,8 +1847,11 @@
       <c r="F27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1789,8 +1870,11 @@
       <c r="F28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1809,8 +1893,11 @@
       <c r="F29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="F30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1849,8 +1939,11 @@
       <c r="F31" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1869,8 +1962,11 @@
       <c r="F32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1889,8 +1985,11 @@
       <c r="F33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1909,8 +2008,11 @@
       <c r="F34" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1929,8 +2031,11 @@
       <c r="F35" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1949,8 +2054,11 @@
       <c r="F36" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1969,8 +2077,11 @@
       <c r="F37" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1989,8 +2100,11 @@
       <c r="F38" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -2009,8 +2123,11 @@
       <c r="F39" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -2029,8 +2146,11 @@
       <c r="F40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2049,8 +2169,11 @@
       <c r="F41" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2069,8 +2192,11 @@
       <c r="F42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2089,8 +2215,11 @@
       <c r="F43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2109,8 +2238,11 @@
       <c r="F44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2129,8 +2261,11 @@
       <c r="F45" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2149,8 +2284,11 @@
       <c r="F46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -2169,8 +2307,11 @@
       <c r="F47" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -2189,8 +2330,11 @@
       <c r="F48" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2209,8 +2353,11 @@
       <c r="F49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2229,8 +2376,11 @@
       <c r="F50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2249,8 +2399,11 @@
       <c r="F51" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2269,8 +2422,11 @@
       <c r="F52" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -2289,8 +2445,11 @@
       <c r="F53" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -2309,8 +2468,11 @@
       <c r="F54" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2329,8 +2491,11 @@
       <c r="F55" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2349,8 +2514,11 @@
       <c r="F56" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2369,8 +2537,11 @@
       <c r="F57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2389,8 +2560,11 @@
       <c r="F58" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="F59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2429,8 +2606,11 @@
       <c r="F60" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2449,8 +2629,11 @@
       <c r="F61" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2469,8 +2652,11 @@
       <c r="F62" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2488,6 +2674,9 @@
       </c>
       <c r="F63" t="s">
         <v>130</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
